--- a/biology/Écologie/Jane_Hill/Jane_Hill.xlsx
+++ b/biology/Écologie/Jane_Hill/Jane_Hill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jane Katharine Hill Hon. FRES est une écologiste britannique et professeure d'écologie à l'Université de York et est l'actuelle présidente de la Royal Entomological Society ; Ses travaux portent essentiellement sur les effets du changement climatique et de la dégradation de l'habitat sur les insectes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jane Katharine Hill Hon. FRES est une écologiste britannique et professeure d'écologie à l'Université de York et est l'actuelle présidente de la Royal Entomological Society ; Ses travaux portent essentiellement sur les effets du changement climatique et de la dégradation de l'habitat sur les insectes.
 </t>
         </is>
       </c>
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et carrière
-Hill obtient un diplôme de premier cycle, une maîtrise à l'Université de Manchester et un doctorat en écologie des insectes à l'Université de Bangor en 1991[2]. En tant que chercheuse postdoctorale, elle étudie les effets du climat sur les insectes et la dynamique des métapopulations chez les papillons[3] à l'Université John Moores de Liverpool, à l'Université de Leeds et à l'Université de Durham[4].
-En 2001, elle déménage à l'Université de York pour être chargée de cours, elle devient maître de conférences en 2006[5] et en 2010 elle reçoit le titre de professeure d'écologie[6] et est chef adjoint du département de biologie.
-Hill est championne Athena Swan à l'École de biologie de York, son département est l'un des premiers au Royaume-Uni à recevoir le Athena Swan Gold Award en reconnaissance de son engagement à faire progresser la carrière des femmes dans l'enseignement supérieur et la recherche[7].
+          <t>Formation et carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hill obtient un diplôme de premier cycle, une maîtrise à l'Université de Manchester et un doctorat en écologie des insectes à l'Université de Bangor en 1991. En tant que chercheuse postdoctorale, elle étudie les effets du climat sur les insectes et la dynamique des métapopulations chez les papillons à l'Université John Moores de Liverpool, à l'Université de Leeds et à l'Université de Durham.
+En 2001, elle déménage à l'Université de York pour être chargée de cours, elle devient maître de conférences en 2006 et en 2010 elle reçoit le titre de professeure d'écologie et est chef adjoint du département de biologie.
+Hill est championne Athena Swan à l'École de biologie de York, son département est l'un des premiers au Royaume-Uni à recevoir le Athena Swan Gold Award en reconnaissance de son engagement à faire progresser la carrière des femmes dans l'enseignement supérieur et la recherche.
 </t>
         </is>
       </c>
@@ -545,13 +562,15 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hill a effectué l'une des premières relocalisations d'insectes, déplaçant des populations de papillons blancs marbrés et de petits hespéries plus au nord et à l'est du Royaume-Uni en 2000[8]. Le projet a été couronné de succès et fournit des informations aux biologistes de la conservation pour effectuer de futures migrations assistées d'insectes[9].
-Ses études sur la migration des insectes, constatant que les papillons et les mites peuvent voler des centaines de mètres dans les airs pour profiter du vent pour les accélérer, ils peuvent aussi faire des ajustements à leur direction pour voyager plus rapidement vers leur destination[10].
-Hill a effectué des travaux de terrain dans les écosystèmes tropicaux et a découvert que les plantations de palmiers à huile peuvent agir comme une barrière au mouvement des papillons dans et entre les zones de forêt tropicale, en particulier les plus grands papillons, montre l'importance d'avoir un réseau de parcelles d'habitat connectées[11].
-Son travail sur les effets du changement climatique sur la biodiversité a montré que les papillons nocturnes du mont Kinabalu à Bornéo étaient devenus plus petits et avaient remonté la montagne entre les années 1960 et 2000, un déplacement de plus de 60 m[12]. Les papillons de nuit et les papillons britanniques réagissent de différentes manières au changement climatique, les espèces ayant une alimentation variée et des taux d'accouplement plus élevés (comme le tapis vert et la petite vague poussiéreuse ) peuvent prospérer dans des températures croissantes, celles telles que le fritillaire bordé de perles et le Le bleu clouté d'argent fait moins bien car il est spécialiste de quelques plantes alimentaires et n'a qu'une génération de descendants par an[13].
-Hill a souligné que les zones d'habitat protégées pour aider à maintenir les populations d'espèces rares doivent être connectées pour faciliter la migration et la dispersion et doivent avoir les bonnes enveloppes climatiques pour que les espèces survivent aux conditions climatiques futures[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hill a effectué l'une des premières relocalisations d'insectes, déplaçant des populations de papillons blancs marbrés et de petits hespéries plus au nord et à l'est du Royaume-Uni en 2000. Le projet a été couronné de succès et fournit des informations aux biologistes de la conservation pour effectuer de futures migrations assistées d'insectes.
+Ses études sur la migration des insectes, constatant que les papillons et les mites peuvent voler des centaines de mètres dans les airs pour profiter du vent pour les accélérer, ils peuvent aussi faire des ajustements à leur direction pour voyager plus rapidement vers leur destination.
+Hill a effectué des travaux de terrain dans les écosystèmes tropicaux et a découvert que les plantations de palmiers à huile peuvent agir comme une barrière au mouvement des papillons dans et entre les zones de forêt tropicale, en particulier les plus grands papillons, montre l'importance d'avoir un réseau de parcelles d'habitat connectées.
+Son travail sur les effets du changement climatique sur la biodiversité a montré que les papillons nocturnes du mont Kinabalu à Bornéo étaient devenus plus petits et avaient remonté la montagne entre les années 1960 et 2000, un déplacement de plus de 60 m. Les papillons de nuit et les papillons britanniques réagissent de différentes manières au changement climatique, les espèces ayant une alimentation variée et des taux d'accouplement plus élevés (comme le tapis vert et la petite vague poussiéreuse ) peuvent prospérer dans des températures croissantes, celles telles que le fritillaire bordé de perles et le Le bleu clouté d'argent fait moins bien car il est spécialiste de quelques plantes alimentaires et n'a qu'une génération de descendants par an.
+Hill a souligné que les zones d'habitat protégées pour aider à maintenir les populations d'espèces rares doivent être connectées pour faciliter la migration et la dispersion et doivent avoir les bonnes enveloppes climatiques pour que les espèces survivent aux conditions climatiques futures.
 </t>
         </is>
       </c>
@@ -580,12 +599,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hill a reçu le Marsh Award for Conservation Biology en 2011 par le Marsh Christian Trust et la Zoological Society of London[15].
-En 2015, elle a donné la conférence Sir Julian Huxley à l'University College London[16] et elle a donné la conférence Stamford Raffles en 2016 à la Zoological Society of London[6].
-Elle a été nommée membre honoraire de la Royal Entomological Society en 2016[17] et est administratrice de la British Ecological Society[18].
-Depuis septembre 2022, elle est présidente de la Royal Entomological Society[19].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hill a reçu le Marsh Award for Conservation Biology en 2011 par le Marsh Christian Trust et la Zoological Society of London.
+En 2015, elle a donné la conférence Sir Julian Huxley à l'University College London et elle a donné la conférence Stamford Raffles en 2016 à la Zoological Society of London.
+Elle a été nommée membre honoraire de la Royal Entomological Society en 2016 et est administratrice de la British Ecological Society.
+Depuis septembre 2022, elle est présidente de la Royal Entomological Society.
 </t>
         </is>
       </c>
